--- a/Empirehomecrm/src/main/java/com/testdata/loginfunctionality testcases.xlsx
+++ b/Empirehomecrm/src/main/java/com/testdata/loginfunctionality testcases.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9C00B003-A886-46E1-B473-0719D3D2DFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91810\Desktop\New folder (2)\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB82A896-C989-42DA-99BF-90B7BA74C880}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="1170" yWindow="1170" windowWidth="17520" windowHeight="12630" xr2:uid="{C03F4EC0-E36A-44A2-BCFC-0A341A00EDF6}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19800" windowHeight="10215" xr2:uid="{C03F4EC0-E36A-44A2-BCFC-0A341A00EDF6}"/>
   </bookViews>
   <sheets>
     <sheet name="loginfunctionality testcases" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
-  <si>
-    <t>serial number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>user name</t>
   </si>
@@ -418,97 +419,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E77D97-2503-4119-8C6F-62258448987C}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7">
         <v>987687</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
